--- a/Code/Results/Cases/Case_1_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_146/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.347983808891918</v>
+        <v>7.780611209335849</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.56264208704231</v>
+        <v>6.554842872365872</v>
       </c>
       <c r="E2">
-        <v>49.00842672276845</v>
+        <v>24.33813070574213</v>
       </c>
       <c r="F2">
-        <v>100.8705097855903</v>
+        <v>41.37386048936481</v>
       </c>
       <c r="G2">
-        <v>1.530992759101548</v>
+        <v>3.592891420298954</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>86.64240125638682</v>
+        <v>42.10400818103771</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.94187979110673</v>
+        <v>7.708837187108705</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.53346128623173</v>
+        <v>6.525881002224815</v>
       </c>
       <c r="E3">
-        <v>43.11375296146709</v>
+        <v>22.73657062656616</v>
       </c>
       <c r="F3">
-        <v>80.36578159079113</v>
+        <v>40.18859129926754</v>
       </c>
       <c r="G3">
-        <v>1.686393894196009</v>
+        <v>3.606541551222986</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>74.84245622022607</v>
+        <v>39.76429407088607</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.699195315502439</v>
+        <v>7.666334202181588</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.9595426488942</v>
+        <v>6.521170801178379</v>
       </c>
       <c r="E4">
-        <v>40.25263637928614</v>
+        <v>21.74130068265563</v>
       </c>
       <c r="F4">
-        <v>72.13360216094203</v>
+        <v>39.50198044236849</v>
       </c>
       <c r="G4">
-        <v>1.746696809324203</v>
+        <v>3.615240326429777</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>69.43111893417972</v>
+        <v>38.26281918847521</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.600266864089445</v>
+        <v>7.649425672114651</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.39257806003913</v>
+        <v>6.522410507095225</v>
       </c>
       <c r="E5">
-        <v>39.13888795769392</v>
+        <v>21.32247199164257</v>
       </c>
       <c r="F5">
-        <v>69.13813166196384</v>
+        <v>39.23289263602974</v>
       </c>
       <c r="G5">
-        <v>1.768340839138179</v>
+        <v>3.618866339924081</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>67.36049545861152</v>
+        <v>37.63504653945539</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.583822811914001</v>
+        <v>7.646643401729598</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.30153789711884</v>
+        <v>6.522803160040419</v>
       </c>
       <c r="E6">
-        <v>38.95578639652353</v>
+        <v>21.25212790520169</v>
       </c>
       <c r="F6">
-        <v>68.65568551747793</v>
+        <v>39.18886742791262</v>
       </c>
       <c r="G6">
-        <v>1.771812059791656</v>
+        <v>3.619473378886842</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>67.02174455533002</v>
+        <v>37.52985829121396</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.697862030677586</v>
+        <v>7.666104477476813</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.95166463715453</v>
+        <v>6.521174908151983</v>
       </c>
       <c r="E7">
-        <v>40.23747033939016</v>
+        <v>21.73570575737628</v>
       </c>
       <c r="F7">
-        <v>72.09208736205669</v>
+        <v>39.49830761372419</v>
       </c>
       <c r="G7">
-        <v>1.746997860178642</v>
+        <v>3.615288897627604</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>69.40280143981671</v>
+        <v>38.25441663536925</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.204053657390358</v>
+        <v>7.755549314939166</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15.75888722034905</v>
+        <v>6.54207114965147</v>
       </c>
       <c r="E8">
-        <v>46.61427087138195</v>
+        <v>23.79609060260449</v>
       </c>
       <c r="F8">
-        <v>91.79236969647599</v>
+        <v>40.9568716531921</v>
       </c>
       <c r="G8">
-        <v>1.600696257083599</v>
+        <v>3.597532905890489</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>81.70777821840753</v>
+        <v>41.31095435665283</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.204053657390358</v>
+        <v>7.942564409447954</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>15.75888722034905</v>
+        <v>6.691648760314268</v>
       </c>
       <c r="E9">
-        <v>46.61427087138195</v>
+        <v>27.48083627289002</v>
       </c>
       <c r="F9">
-        <v>91.79236969647599</v>
+        <v>44.12573426105983</v>
       </c>
       <c r="G9">
-        <v>1.600696257083599</v>
+        <v>3.565169392868816</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>81.70777821840753</v>
+        <v>46.77685254303503</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.204053657390358</v>
+        <v>8.085917296137495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>15.75888722034905</v>
+        <v>6.873036857174943</v>
       </c>
       <c r="E10">
-        <v>46.61427087138195</v>
+        <v>29.90692789391282</v>
       </c>
       <c r="F10">
-        <v>91.79236969647599</v>
+        <v>46.61699785827755</v>
       </c>
       <c r="G10">
-        <v>1.600696257083599</v>
+        <v>3.542796165870817</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>81.70777821840753</v>
+        <v>50.45863817066585</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.204053657390358</v>
+        <v>8.15217857099201</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.75888722034905</v>
+        <v>6.97180091917764</v>
       </c>
       <c r="E11">
-        <v>46.61427087138195</v>
+        <v>30.95077145099389</v>
       </c>
       <c r="F11">
-        <v>91.79236969647599</v>
+        <v>47.78051796666346</v>
       </c>
       <c r="G11">
-        <v>1.600696257083599</v>
+        <v>3.532901305956774</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>81.70777821840753</v>
+        <v>52.05976347470166</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.204053657390358</v>
+        <v>8.177400052170675</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.75888722034905</v>
+        <v>7.011569132233884</v>
       </c>
       <c r="E12">
-        <v>46.61427087138195</v>
+        <v>31.33754869612849</v>
       </c>
       <c r="F12">
-        <v>91.79236969647599</v>
+        <v>48.22505492451754</v>
       </c>
       <c r="G12">
-        <v>1.600696257083599</v>
+        <v>3.529193176021548</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>81.70777821840753</v>
+        <v>52.65542008238913</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.204053657390358</v>
+        <v>8.171962718463305</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.75888722034905</v>
+        <v>7.002898684755259</v>
       </c>
       <c r="E13">
-        <v>46.61427087138195</v>
+        <v>31.25462594616826</v>
       </c>
       <c r="F13">
-        <v>91.79236969647599</v>
+        <v>48.12914695513044</v>
       </c>
       <c r="G13">
-        <v>1.600696257083599</v>
+        <v>3.529990091109993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>81.70777821840753</v>
+        <v>52.52760902365626</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.204053657390358</v>
+        <v>8.154251077208682</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.75888722034905</v>
+        <v>6.975025089459091</v>
       </c>
       <c r="E14">
-        <v>46.61427087138195</v>
+        <v>30.98276171633875</v>
       </c>
       <c r="F14">
-        <v>91.79236969647599</v>
+        <v>47.81701359812107</v>
       </c>
       <c r="G14">
-        <v>1.600696257083599</v>
+        <v>3.532595468364331</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>81.70777821840753</v>
+        <v>52.10898218576286</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.204053657390358</v>
+        <v>8.143418460614688</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.75888722034905</v>
+        <v>6.958260778765489</v>
       </c>
       <c r="E15">
-        <v>46.61427087138195</v>
+        <v>30.81513248146335</v>
       </c>
       <c r="F15">
-        <v>91.79236969647599</v>
+        <v>47.62632410365198</v>
       </c>
       <c r="G15">
-        <v>1.600696257083599</v>
+        <v>3.53419633891858</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>81.70777821840753</v>
+        <v>51.85117278416921</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.204053657390358</v>
+        <v>8.081606274565937</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15.75888722034905</v>
+        <v>6.866912505907741</v>
       </c>
       <c r="E16">
-        <v>46.61427087138195</v>
+        <v>29.83751503874745</v>
       </c>
       <c r="F16">
-        <v>91.79236969647599</v>
+        <v>46.5415315372103</v>
       </c>
       <c r="G16">
-        <v>1.600696257083599</v>
+        <v>3.543448355331773</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>81.70777821840753</v>
+        <v>50.35251170408679</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.204053657390358</v>
+        <v>8.04394021893312</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>15.75888722034905</v>
+        <v>6.815063642538275</v>
       </c>
       <c r="E17">
-        <v>46.61427087138195</v>
+        <v>29.22252942733883</v>
       </c>
       <c r="F17">
-        <v>91.79236969647599</v>
+        <v>45.8834865839932</v>
       </c>
       <c r="G17">
-        <v>1.600696257083599</v>
+        <v>3.549195337273923</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>81.70777821840753</v>
+        <v>49.41419533518621</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.204053657390358</v>
+        <v>8.022375732100512</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>15.75888722034905</v>
+        <v>6.786770369646505</v>
       </c>
       <c r="E18">
-        <v>46.61427087138195</v>
+        <v>28.86317162366551</v>
       </c>
       <c r="F18">
-        <v>91.79236969647599</v>
+        <v>45.50786472812523</v>
       </c>
       <c r="G18">
-        <v>1.600696257083599</v>
+        <v>3.552527586640969</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>81.70777821840753</v>
+        <v>48.86756018701534</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.204053657390358</v>
+        <v>8.015092192306215</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>15.75888722034905</v>
+        <v>6.777452063346791</v>
       </c>
       <c r="E19">
-        <v>46.61427087138195</v>
+        <v>28.74052869729338</v>
       </c>
       <c r="F19">
-        <v>91.79236969647599</v>
+        <v>45.38119131796785</v>
       </c>
       <c r="G19">
-        <v>1.600696257083599</v>
+        <v>3.553660475312003</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>81.70777821840753</v>
+        <v>48.68128917414234</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.204053657390358</v>
+        <v>8.047939635095927</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>15.75888722034905</v>
+        <v>6.820424527830261</v>
       </c>
       <c r="E20">
-        <v>46.61427087138195</v>
+        <v>29.28857815011054</v>
       </c>
       <c r="F20">
-        <v>91.79236969647599</v>
+        <v>45.95324283305757</v>
       </c>
       <c r="G20">
-        <v>1.600696257083599</v>
+        <v>3.548580806958188</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>81.70777821840753</v>
+        <v>49.51479952611811</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.204053657390358</v>
+        <v>8.159450061412615</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.75888722034905</v>
+        <v>6.983147798034207</v>
       </c>
       <c r="E21">
-        <v>46.61427087138195</v>
+        <v>31.06284484195912</v>
       </c>
       <c r="F21">
-        <v>91.79236969647599</v>
+        <v>47.90859095925764</v>
       </c>
       <c r="G21">
-        <v>1.600696257083599</v>
+        <v>3.531829166970986</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>81.70777821840753</v>
+        <v>52.23223240564722</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.204053657390358</v>
+        <v>8.233075288506656</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.75888722034905</v>
+        <v>7.103304273995603</v>
       </c>
       <c r="E22">
-        <v>46.61427087138195</v>
+        <v>32.17291149430562</v>
       </c>
       <c r="F22">
-        <v>91.79236969647599</v>
+        <v>49.20931115655926</v>
       </c>
       <c r="G22">
-        <v>1.600696257083599</v>
+        <v>3.521106455150966</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>81.70777821840753</v>
+        <v>53.94613227580376</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.204053657390358</v>
+        <v>8.193718742755095</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.75888722034905</v>
+        <v>7.037905162548183</v>
       </c>
       <c r="E23">
-        <v>46.61427087138195</v>
+        <v>31.58494670165238</v>
       </c>
       <c r="F23">
-        <v>91.79236969647599</v>
+        <v>48.51313256704435</v>
       </c>
       <c r="G23">
-        <v>1.600696257083599</v>
+        <v>3.526809372994818</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>81.70777821840753</v>
+        <v>53.03708015228532</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.204053657390358</v>
+        <v>8.046131216399223</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>15.75888722034905</v>
+        <v>6.817996154284163</v>
       </c>
       <c r="E24">
-        <v>46.61427087138195</v>
+        <v>29.25873557792091</v>
       </c>
       <c r="F24">
-        <v>91.79236969647599</v>
+        <v>45.9216976008098</v>
       </c>
       <c r="G24">
-        <v>1.600696257083599</v>
+        <v>3.5488585480375</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>81.70777821840753</v>
+        <v>49.46933874536128</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.204053657390358</v>
+        <v>7.890843387508639</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.75888722034905</v>
+        <v>6.638938210829992</v>
       </c>
       <c r="E25">
-        <v>46.61427087138195</v>
+        <v>26.53376720229295</v>
       </c>
       <c r="F25">
-        <v>91.79236969647599</v>
+        <v>43.2379979852612</v>
       </c>
       <c r="G25">
-        <v>1.600696257083599</v>
+        <v>3.573670980035683</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>81.70777821840753</v>
+        <v>45.35621729872385</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_146/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.780611209335849</v>
+        <v>7.347983808891913</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.554842872365872</v>
+        <v>17.56264208704214</v>
       </c>
       <c r="E2">
-        <v>24.33813070574213</v>
+        <v>49.00842672276755</v>
       </c>
       <c r="F2">
-        <v>41.37386048936481</v>
+        <v>100.870509785589</v>
       </c>
       <c r="G2">
-        <v>3.592891420298954</v>
+        <v>1.530992759101354</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>42.10400818103771</v>
+        <v>86.64240125638553</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.708837187108705</v>
+        <v>6.941879791106634</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.525881002224815</v>
+        <v>13.53346128623202</v>
       </c>
       <c r="E3">
-        <v>22.73657062656616</v>
+        <v>43.11375296146723</v>
       </c>
       <c r="F3">
-        <v>40.18859129926754</v>
+        <v>80.36578159079188</v>
       </c>
       <c r="G3">
-        <v>3.606541551222986</v>
+        <v>1.686393894195875</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>39.76429407088607</v>
+        <v>74.84245622022628</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.666334202181588</v>
+        <v>6.699195315502345</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.521170801178379</v>
+        <v>11.95954264889442</v>
       </c>
       <c r="E4">
-        <v>21.74130068265563</v>
+        <v>40.25263637928628</v>
       </c>
       <c r="F4">
-        <v>39.50198044236849</v>
+        <v>72.13360216094289</v>
       </c>
       <c r="G4">
-        <v>3.615240326429777</v>
+        <v>1.746696809324337</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>38.26281918847521</v>
+        <v>69.43111893418006</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.649425672114651</v>
+        <v>6.600266864089422</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.522410507095225</v>
+        <v>11.39257806003894</v>
       </c>
       <c r="E5">
-        <v>21.32247199164257</v>
+        <v>39.13888795769351</v>
       </c>
       <c r="F5">
-        <v>39.23289263602974</v>
+        <v>69.13813166196306</v>
       </c>
       <c r="G5">
-        <v>3.618866339924081</v>
+        <v>1.768340839138573</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>37.63504653945539</v>
+        <v>67.36049545861096</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.646643401729598</v>
+        <v>6.583822811914001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.522803160040419</v>
+        <v>11.30153789711886</v>
       </c>
       <c r="E6">
-        <v>21.25212790520169</v>
+        <v>38.95578639652306</v>
       </c>
       <c r="F6">
-        <v>39.18886742791262</v>
+        <v>68.65568551747818</v>
       </c>
       <c r="G6">
-        <v>3.619473378886842</v>
+        <v>1.77181205979179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>37.52985829121396</v>
+        <v>67.02174455532953</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.666104477476813</v>
+        <v>6.697862030677729</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.521174908151983</v>
+        <v>11.9516646371544</v>
       </c>
       <c r="E7">
-        <v>21.73570575737628</v>
+        <v>40.23747033939002</v>
       </c>
       <c r="F7">
-        <v>39.49830761372419</v>
+        <v>72.09208736205629</v>
       </c>
       <c r="G7">
-        <v>3.615288897627604</v>
+        <v>1.746997860178511</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>38.25441663536925</v>
+        <v>69.40280143981656</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.755549314939166</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.54207114965147</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E8">
-        <v>23.79609060260449</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F8">
-        <v>40.9568716531921</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G8">
-        <v>3.597532905890489</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>41.31095435665283</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.942564409447954</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.691648760314268</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E9">
-        <v>27.48083627289002</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F9">
-        <v>44.12573426105983</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G9">
-        <v>3.565169392868816</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>46.77685254303503</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.085917296137495</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.873036857174943</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E10">
-        <v>29.90692789391282</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F10">
-        <v>46.61699785827755</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G10">
-        <v>3.542796165870817</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>50.45863817066585</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.15217857099201</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.97180091917764</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E11">
-        <v>30.95077145099389</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F11">
-        <v>47.78051796666346</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G11">
-        <v>3.532901305956774</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>52.05976347470166</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.177400052170675</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.011569132233884</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E12">
-        <v>31.33754869612849</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F12">
-        <v>48.22505492451754</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G12">
-        <v>3.529193176021548</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>52.65542008238913</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.171962718463305</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.002898684755259</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E13">
-        <v>31.25462594616826</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F13">
-        <v>48.12914695513044</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G13">
-        <v>3.529990091109993</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>52.52760902365626</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.154251077208682</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.975025089459091</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E14">
-        <v>30.98276171633875</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F14">
-        <v>47.81701359812107</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G14">
-        <v>3.532595468364331</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>52.10898218576286</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.143418460614688</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.958260778765489</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E15">
-        <v>30.81513248146335</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F15">
-        <v>47.62632410365198</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G15">
-        <v>3.53419633891858</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.85117278416921</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.081606274565937</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.866912505907741</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E16">
-        <v>29.83751503874745</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F16">
-        <v>46.5415315372103</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G16">
-        <v>3.543448355331773</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>50.35251170408679</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.04394021893312</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.815063642538275</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E17">
-        <v>29.22252942733883</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F17">
-        <v>45.8834865839932</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G17">
-        <v>3.549195337273923</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>49.41419533518621</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.022375732100512</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.786770369646505</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E18">
-        <v>28.86317162366551</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F18">
-        <v>45.50786472812523</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G18">
-        <v>3.552527586640969</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>48.86756018701534</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.015092192306215</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.777452063346791</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E19">
-        <v>28.74052869729338</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F19">
-        <v>45.38119131796785</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G19">
-        <v>3.553660475312003</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>48.68128917414234</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.047939635095927</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.820424527830261</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E20">
-        <v>29.28857815011054</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F20">
-        <v>45.95324283305757</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G20">
-        <v>3.548580806958188</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>49.51479952611811</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.159450061412615</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.983147798034207</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E21">
-        <v>31.06284484195912</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F21">
-        <v>47.90859095925764</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G21">
-        <v>3.531829166970986</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>52.23223240564722</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.233075288506656</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.103304273995603</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E22">
-        <v>32.17291149430562</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F22">
-        <v>49.20931115655926</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G22">
-        <v>3.521106455150966</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>53.94613227580376</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.193718742755095</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.037905162548183</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E23">
-        <v>31.58494670165238</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F23">
-        <v>48.51313256704435</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G23">
-        <v>3.526809372994818</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53.03708015228532</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.046131216399223</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.817996154284163</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E24">
-        <v>29.25873557792091</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F24">
-        <v>45.9216976008098</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G24">
-        <v>3.5488585480375</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>49.46933874536128</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.890843387508639</v>
+        <v>7.204053657390336</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.638938210829992</v>
+        <v>15.75888722034932</v>
       </c>
       <c r="E25">
-        <v>26.53376720229295</v>
+        <v>46.61427087138276</v>
       </c>
       <c r="F25">
-        <v>43.2379979852612</v>
+        <v>91.79236969647698</v>
       </c>
       <c r="G25">
-        <v>3.573670980035683</v>
+        <v>1.600696257083474</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>45.35621729872385</v>
+        <v>81.70777821840866</v>
       </c>
       <c r="N25">
         <v>0</v>
